--- a/biology/Zoologie/Grallaire_demi-lune/Grallaire_demi-lune.xlsx
+++ b/biology/Zoologie/Grallaire_demi-lune/Grallaire_demi-lune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaricula lineifrons
 Le Grallaire demi-lune, Grallaricula lineifrons, est une espèce d'oiseaux de la famille des Grallariidae. L'espèce est endémique du nord-ouest du continent sud-américain.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent environ 12 cm pour un poids de 20 g à 23 g et le dimorphisme sexuel est peu prononcé car les femelles ont un poids compris entre 17 g et 22 g pour une taille comparable[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent environ 12 cm pour un poids de 20 g à 23 g et le dimorphisme sexuel est peu prononcé car les femelles ont un poids compris entre 17 g et 22 g pour une taille comparable.
 L'espèce est décrite par le naturaliste américain Frank Michler Chapman en 1924.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du nord-ouest de l'Amérique du Sud (repérée en Bolivie et en Équateur)[2]
-Son habitat naturel est subtropical, des forêts tropicales humides d'altitude (chaîne des Andes), généralement au dessus de 2 000 m et jusqu'à la limite des forêts d'altitude sur ce continent (~3 500 m)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du nord-ouest de l'Amérique du Sud (repérée en Bolivie et en Équateur)
+Son habitat naturel est subtropical, des forêts tropicales humides d'altitude (chaîne des Andes), généralement au dessus de 2 000 m et jusqu'à la limite des forêts d'altitude sur ce continent (~3 500 m).
 </t>
         </is>
       </c>
